--- a/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6481,4 +6482,2454 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>232.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>177.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.3560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>147.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1836</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.0443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3904</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1695</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0404</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2970</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6986</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2764</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2663</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8258</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7437</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7208</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5902</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5786</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8932,4 +8933,2302 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2886</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8815</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4696</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4135</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8716</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8212</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6761</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5023</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3063</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11231,4 +11232,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11240,7 +11241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11251,17 +11252,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11271,14 +11292,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.83</v>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -11287,14 +11330,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>69.34</v>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -11303,14 +11368,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66.31</v>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -11319,13 +11406,1671 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>157.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5410</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2452</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8800</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>91</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>63.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12969,7 +12970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12980,17 +12981,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13000,14 +13021,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.67</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4743</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -13016,14 +13059,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.83</v>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -13032,14 +13097,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.34</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -13048,14 +13135,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>66.31</v>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2396</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -13064,13 +13173,1873 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4715</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1575</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8910</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8849</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8837</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6314</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4117</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>91</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>63.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14922,7 +14923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14933,17 +14934,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14953,14 +14974,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.44</v>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>143.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -14969,14 +15012,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.67</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -14985,14 +15050,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.83</v>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -15001,14 +15088,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>63</v>
-      </c>
-      <c r="D5" t="n">
-        <v>69.34</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8918</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -15017,14 +15126,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>65</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66.31</v>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7558</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -15033,13 +15164,1627 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3540</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1933</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9803</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7431</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4334</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>69.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>66.31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>91</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>63.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>27.83</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>25.44</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>30.67</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>49.83</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>69.34</v>
+        <v>49.83</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>66.31</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>66.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>91</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -600,6 +617,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015161</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2327,7 +3806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4279,7 +5758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6007,7 +7486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8305,7 +9784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10755,7 +12234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13281,7 +14760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600346-恒力石化.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>27.83</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>25.44</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>30.67</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>49.83</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>69.34</v>
+        <v>49.83</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
-        <v>66.31</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3542 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>66.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>91</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>63.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3007</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>103.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>103.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7908</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7908</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.7294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>61.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4866</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1172</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9479</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8897</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8832</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8244</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7313</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>147.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7247</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7048</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6385</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5624</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5597</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5494</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5395</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5142</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4702</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4670</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4433</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3682</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3326</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>45.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>45.37</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002924</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华商瑞鑫定期开放债券</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +4146,1772 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3653</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5129</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001633</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012435</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001634</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013527</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012436</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013528</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2078,7 +7373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3806,7 +9101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5758,7 +11053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7486,7 +12781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9784,7 +15079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12234,7 +17529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14758,3516 +20053,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H92"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001885</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧新蓝筹混合 -E</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>134.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.3007</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧新蓝筹混合 -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>134.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.3007</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001881</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧新趋势混合(LOF) -E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>103.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.1788</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧新趋势混合(LOF) -A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>103.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4.1788</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005787</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>103.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.1788</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001117</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧精选灵活配置定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>70.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.7908</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001890</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧精选灵活配置定期开放混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>70.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3.7908</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166023</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧瑞丰灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3.7294</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009474</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰致远优势混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>61.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3.7124</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>100026</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国天合稳健混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>42.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.8306</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002593</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国美丽中国混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>33.94</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.4866</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>202023</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方优选成长混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>39.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.1172</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001480</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>财通成长优选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>21.35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.9479</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006921</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方智诚混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.9006</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>720001</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>财通价值动量混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>23.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.8897</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>180003</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银华-道琼斯88指数 A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>27.60</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.8832</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005730</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰江源优势精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>14.14</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.8244</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004357</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方智慧精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.7313</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>202101</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方宝元债券A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>147.90</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>27.32</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.7247</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004237</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中欧新蓝筹混合 -C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>15.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>78.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.7048</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005810</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.7002</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>25.04</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.6385</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>161609</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>融通动力先锋混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.5798</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.5624</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.5597</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>501085</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.5494</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>160105</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>南方积极配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.5395</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009062</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.5142</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>481015</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>工银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.4702</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008983</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>财通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.4670</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000793</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>工银高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>17.05</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.4433</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.4109</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>163302</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>大摩资源优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.3682</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008638</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>广发科技创新混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.3425</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>519698</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>交银先锋混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.3326</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>202027</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.3032</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.2814</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>007016</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>富国睿泽回报混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>79.61</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.2784</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.2663</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.2663</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>006585</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>南方宝元债券C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>36.12</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>27.32</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1770</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005206</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>南方优选成长混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1724</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1666</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.1663</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.1424</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>009488</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>72.06</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.1416</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>000594</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>大摩进取优选股票</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.1410</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>000554</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>南方中国梦灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.1257</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>001650</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>工银瑞信丰收回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>45.37</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.1238</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.1214</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>006022</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>富国大盘价值量化精选混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.1208</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.1112</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004740</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中欧瑞丰灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.1064</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>009893</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0838</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>519969</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>长信新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>26.32</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>001635</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>万家瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>001636</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>万家瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0736</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0666</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>003658</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>长盛量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>38.88</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0645</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>005811</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0624</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>91.01</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0534</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>011325</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>国泰江源优势精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0519</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0480</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>005207</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>003598</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>009489</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>72.06</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0428</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>007509</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>008984</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>财通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>005284</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>华商可转债债券C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>005273</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>华商可转债债券A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>000916</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>前海开源股息率100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>217021</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>招商优势企业混合</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>69.81</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>005821</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>002233</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>工银瑞信丰收回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>45.37</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>005360</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>汇安资产轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>001448</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>华商双翼平衡混合</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>002924</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>华商瑞鑫定期开放债券</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>20.07</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>002453</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>159944</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>广发中证全指原材料ETF</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>000892</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>002454</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>005628</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票A</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>005629</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票C</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>002028</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>